--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2098,6 +2098,43 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>172684</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11:48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11055,12 +11055,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>NGUYỄN HOÀNG VIỆT</t>
+          <t>NGUYỄN QUANG QUÍ</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>172759</t>
+          <t>203638</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -11085,44 +11085,266 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>12-04-2024</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
+          <t>TRẦN VĂN LƯU</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>234102</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>12-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>BÙI ĐÌNH HỒNG PHÚC</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>193273</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>12-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
           <t>NGUYỄN HOÀNG VIỆT</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>172759</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>TEST REQUEST</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>2024-04-12</t>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>12-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>12-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>172684</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>12-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>LÊ QUỐC TRUNG</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>224016</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>12-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>NGUYỄN TUẤN ANH</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>224057</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
         </is>
       </c>
     </row>

--- a/log.xlsx
+++ b/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11314,35 +11314,72 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>LÊ QUỐC TRUNG</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>224016</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>B/T</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>14-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
           <t>NGUYỄN TUẤN ANH</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B296" t="inlineStr">
         <is>
           <t>224057</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>TEST REQUEST</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>TEST REQUEST</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
